--- a/hasil/2023_01_lipa_5.xlsx
+++ b/hasil/2023_01_lipa_5.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>LAPORAN PERKARA YANG DIMOHONKAN EKSEKUSI</t>
   </si>
@@ -100,21 +100,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>3/Pdt.Eks/2020/PA.Tte</t>
-  </si>
-  <si>
-    <t>2/Pdt.G/2019/PTA.MU</t>
-  </si>
-  <si>
-    <t>04/11/2020</t>
-  </si>
-  <si>
-    <t>18/11/2020</t>
-  </si>
-  <si>
-    <t>25/11/2020</t>
-  </si>
-  <si>
     <t>2/Pdt.Eks/2022/PA.Tte</t>
   </si>
   <si>
@@ -154,6 +139,9 @@
     <t>28/06/2021</t>
   </si>
   <si>
+    <t>11/01/2023</t>
+  </si>
+  <si>
     <t>3/Pdt.Eks/2022/PA.Tte</t>
   </si>
   <si>
@@ -169,13 +157,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 24 Mei 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -195,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -250,6 +238,15 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -311,7 +308,23 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="double">
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -322,23 +335,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -397,6 +394,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -405,10 +406,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -417,23 +414,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -736,176 +733,176 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="13.2" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="true" style="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="true" style="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="true" style="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="true" style="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="true" style="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="true" style="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="true" style="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="true" style="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="true" style="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="true" style="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="true" style="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="true" style="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true" style="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="true" style="1"/>
     <col min="8" max="8" width="12" customWidth="true" style="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="true" style="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="true" style="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="true" style="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="true" style="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="true" style="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="true" style="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="true" style="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true" style="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true" style="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="true" style="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customHeight="1" ht="15.6">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" customHeight="1" ht="15.6">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" customHeight="1" ht="15.6">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" customHeight="1" ht="13.8">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" customHeight="1" ht="14.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" customHeight="1" ht="15.6">
+    <row r="5" spans="1:14" customHeight="1" ht="15.75">
       <c r="N5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customHeight="1" ht="15.6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="9" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customHeight="1" ht="40.8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" customHeight="1" ht="16.8">
+    <row r="8" spans="1:14" customHeight="1" ht="40.9">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" customHeight="1" ht="17.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -968,9 +965,15 @@
       <c r="F10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -982,30 +985,26 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -1016,11 +1015,9 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
         <v>42</v>
       </c>
@@ -1039,35 +1036,23 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" customHeight="1" ht="25">
-      <c r="A13" s="17">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="15" spans="1:14" customHeight="1" ht="20">
+      <c r="C15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="20">
       <c r="C16" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -1076,22 +1061,18 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" customHeight="1" ht="20">
-      <c r="C17" s="18" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="18" t="s">
-        <v>52</v>
-      </c>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:14">
       <c r="C18" s="18"/>
@@ -1123,19 +1104,23 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:14">
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:14" customHeight="1" ht="20">
+      <c r="C21" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="J21" s="18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="20">
       <c r="C22" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1144,26 +1129,21 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" customHeight="1" ht="20">
-      <c r="C23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
@@ -1174,19 +1154,10 @@
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.59055118110236" right="0.43307086614173" top="0.43307086614173" bottom="0.43307086614173" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="14" orientation="landscape" scale="88" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.98425196850394" right="0.39370078740157" top="0.31496062992126" bottom="0.23622047244094" header="0" footer="0"/>
+  <pageSetup paperSize="14" orientation="landscape" scale="75" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_5.xlsx
+++ b/hasil/2023_01_lipa_5.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>LAPORAN PERKARA YANG DIMOHONKAN EKSEKUSI</t>
   </si>
@@ -100,6 +100,21 @@
     <t>14</t>
   </si>
   <si>
+    <t>3/Pdt.Eks/2020/PA.Tte</t>
+  </si>
+  <si>
+    <t>2/Pdt.G/2019/PTA.MU</t>
+  </si>
+  <si>
+    <t>04/11/2020</t>
+  </si>
+  <si>
+    <t>18/11/2020</t>
+  </si>
+  <si>
+    <t>25/11/2020</t>
+  </si>
+  <si>
     <t>2/Pdt.Eks/2022/PA.Tte</t>
   </si>
   <si>
@@ -139,9 +154,6 @@
     <t>28/06/2021</t>
   </si>
   <si>
-    <t>11/01/2023</t>
-  </si>
-  <si>
     <t>3/Pdt.Eks/2022/PA.Tte</t>
   </si>
   <si>
@@ -157,7 +169,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -733,10 +745,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,15 +977,9 @@
       <c r="F10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>34</v>
-      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -985,26 +991,30 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="I11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -1015,9 +1025,11 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
         <v>42</v>
       </c>
@@ -1036,23 +1048,35 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="15" spans="1:14" customHeight="1" ht="20">
-      <c r="C15" s="18" t="s">
+    <row r="13" spans="1:14" customHeight="1" ht="25">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>46</v>
       </c>
+      <c r="E13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="20">
       <c r="C16" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -1061,18 +1085,22 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="C17" s="18"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" customHeight="1" ht="20">
+      <c r="C17" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="J17" s="18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="C18" s="18"/>
@@ -1104,23 +1132,19 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:14" customHeight="1" ht="20">
-      <c r="C21" s="18" t="s">
-        <v>49</v>
-      </c>
+    <row r="21" spans="1:14">
+      <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="20">
       <c r="C22" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1129,7 +1153,21 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" customHeight="1" ht="20">
+      <c r="C23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/hasil/2023_01_lipa_5.xlsx
+++ b/hasil/2023_01_lipa_5.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>LAPORAN PERKARA YANG DIMOHONKAN EKSEKUSI</t>
   </si>
@@ -100,21 +100,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>3/Pdt.Eks/2020/PA.Tte</t>
-  </si>
-  <si>
-    <t>2/Pdt.G/2019/PTA.MU</t>
-  </si>
-  <si>
-    <t>04/11/2020</t>
-  </si>
-  <si>
-    <t>18/11/2020</t>
-  </si>
-  <si>
-    <t>25/11/2020</t>
-  </si>
-  <si>
     <t>2/Pdt.Eks/2022/PA.Tte</t>
   </si>
   <si>
@@ -154,6 +139,9 @@
     <t>28/06/2021</t>
   </si>
   <si>
+    <t>11/01/2023</t>
+  </si>
+  <si>
     <t>3/Pdt.Eks/2022/PA.Tte</t>
   </si>
   <si>
@@ -169,7 +157,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 04 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -745,10 +733,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -977,9 +965,15 @@
       <c r="F10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -991,30 +985,26 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -1025,11 +1015,9 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
         <v>42</v>
       </c>
@@ -1048,35 +1036,23 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" customHeight="1" ht="25">
-      <c r="A13" s="17">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="15" spans="1:14" customHeight="1" ht="20">
+      <c r="C15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="20">
       <c r="C16" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -1085,22 +1061,18 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" customHeight="1" ht="20">
-      <c r="C17" s="18" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="18" t="s">
-        <v>52</v>
-      </c>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:14">
       <c r="C18" s="18"/>
@@ -1132,19 +1104,23 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:14">
-      <c r="C21" s="18"/>
+    <row r="21" spans="1:14" customHeight="1" ht="20">
+      <c r="C21" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="J21" s="18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="20">
       <c r="C22" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1153,21 +1129,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" customHeight="1" ht="20">
-      <c r="C23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/hasil/2023_01_lipa_5.xlsx
+++ b/hasil/2023_01_lipa_5.xlsx
@@ -157,7 +157,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 04 September 2023</t>
+    <t>Ternate , 05 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
